--- a/Cross_Sections_Database.xlsx
+++ b/Cross_Sections_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMcCrone\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86CA138-CD4D-43FB-812A-E01DA8D41A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24013E-19C9-4E5A-9982-7C3AD9D6D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{817DAA18-59E9-4F63-8B15-EBAD7CAC4AB6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="3" xr2:uid="{817DAA18-59E9-4F63-8B15-EBAD7CAC4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="RHS Database" sheetId="1" r:id="rId1"/>
@@ -1913,11 +1913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC1BF0-E5A0-444B-BD6D-BB158A8970AC}">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.1640625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -2039,7 +2039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="8" t="str">
         <f>B3&amp;" x "&amp;C3&amp;" x "&amp;D3</f>
         <v>50 x 25 x 2</v>
@@ -2102,7 +2102,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="8" t="str">
         <f t="shared" ref="A4:A67" si="0">B4&amp;" x "&amp;C4&amp;" x "&amp;D4</f>
         <v>50 x 25 x 2.5</v>
@@ -2165,7 +2165,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>50 x 25 x 3</v>
@@ -2228,7 +2228,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>50 x 30 x 2</v>
@@ -2291,7 +2291,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>50 x 30 x 2.5</v>
@@ -2354,7 +2354,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>50 x 30 x 3</v>
@@ -2417,7 +2417,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>50 x 30 x 4</v>
@@ -2480,7 +2480,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>60 x 40 x 2.5</v>
@@ -2543,7 +2543,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>60 x 40 x 3</v>
@@ -2606,7 +2606,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>60 x 40 x 4</v>
@@ -2669,7 +2669,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>60 x 40 x 5</v>
@@ -2732,7 +2732,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>70 x 40 x 3</v>
@@ -2795,7 +2795,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>70 x 40 x 4</v>
@@ -2858,7 +2858,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>70 x 40 x 5</v>
@@ -2921,7 +2921,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>70 x 50 x 3</v>
@@ -2984,7 +2984,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>70 x 50 x 4</v>
@@ -3047,7 +3047,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>70 x 50 x 5</v>
@@ -3110,7 +3110,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 40 x 3</v>
@@ -3173,7 +3173,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 40 x 4</v>
@@ -3236,7 +3236,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 40 x 5</v>
@@ -3299,7 +3299,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 50 x 3</v>
@@ -3362,7 +3362,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 50 x 4</v>
@@ -3425,7 +3425,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 50 x 5</v>
@@ -3488,7 +3488,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 60 x 3</v>
@@ -3551,7 +3551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 60 x 3.5</v>
@@ -3614,7 +3614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 60 x 4</v>
@@ -3677,7 +3677,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>80 x 60 x 5</v>
@@ -3740,7 +3740,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>90 x 50 x 3</v>
@@ -3803,7 +3803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>90 x 50 x 4</v>
@@ -3866,7 +3866,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>90 x 50 x 5</v>
@@ -3929,7 +3929,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 40 x 3</v>
@@ -3992,7 +3992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 40 x 4</v>
@@ -4055,7 +4055,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 40 x 5</v>
@@ -4118,7 +4118,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 50 x 3</v>
@@ -4181,7 +4181,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 50 x 4</v>
@@ -4244,7 +4244,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 50 x 5</v>
@@ -4307,7 +4307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 50 x 6</v>
@@ -4370,7 +4370,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 60 x 3</v>
@@ -4433,7 +4433,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 60 x 3.5</v>
@@ -4496,7 +4496,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 60 x 4</v>
@@ -4559,7 +4559,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 60 x 5</v>
@@ -4622,7 +4622,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 60 x 6</v>
@@ -4685,7 +4685,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 80 x 3</v>
@@ -4748,7 +4748,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 80 x 4</v>
@@ -4811,7 +4811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 80 x 5</v>
@@ -4874,7 +4874,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>100 x 80 x 6</v>
@@ -4937,7 +4937,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 40 x 3</v>
@@ -5000,7 +5000,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 40 x 4</v>
@@ -5063,7 +5063,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 40 x 5</v>
@@ -5126,7 +5126,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 60 x 3</v>
@@ -5189,7 +5189,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 60 x 3.5</v>
@@ -5252,7 +5252,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 60 x 4</v>
@@ -5315,7 +5315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 60 x 5</v>
@@ -5378,7 +5378,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 60 x 6</v>
@@ -5441,7 +5441,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 80 x 3</v>
@@ -5504,7 +5504,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 80 x 4</v>
@@ -5567,7 +5567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 80 x 5</v>
@@ -5630,7 +5630,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 80 x 6</v>
@@ -5693,7 +5693,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>120 x 80 x 8</v>
@@ -5756,7 +5756,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>140 x 80 x 3</v>
@@ -5819,7 +5819,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>140 x 80 x 4</v>
@@ -5882,7 +5882,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="8" t="str">
         <f t="shared" si="0"/>
         <v>140 x 80 x 5</v>
@@ -5945,7 +5945,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>140 x 80 x 6</v>
@@ -6008,7 +6008,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>140 x 80 x 8</v>
@@ -6071,7 +6071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A67" s="8" t="str">
         <f t="shared" si="0"/>
         <v>140 x 80 x 10</v>
@@ -6134,7 +6134,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A68" s="8" t="str">
         <f t="shared" ref="A68:A131" si="1">B68&amp;" x "&amp;C68&amp;" x "&amp;D68</f>
         <v>150 x 100 x 3</v>
@@ -6197,7 +6197,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A69" s="8" t="str">
         <f t="shared" si="1"/>
         <v>150 x 100 x 4</v>
@@ -6260,7 +6260,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="8" t="str">
         <f t="shared" si="1"/>
         <v>150 x 100 x 5</v>
@@ -6323,7 +6323,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="8" t="str">
         <f t="shared" si="1"/>
         <v>150 x 100 x 6</v>
@@ -6386,7 +6386,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="8" t="str">
         <f t="shared" si="1"/>
         <v>150 x 100 x 8</v>
@@ -6449,7 +6449,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A73" s="8" t="str">
         <f t="shared" si="1"/>
         <v>150 x 100 x 10</v>
@@ -6512,7 +6512,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A74" s="8" t="str">
         <f t="shared" si="1"/>
         <v>160 x 80 x 3</v>
@@ -6575,7 +6575,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="8" t="str">
         <f t="shared" si="1"/>
         <v>160 x 80 x 4</v>
@@ -6638,7 +6638,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76" s="8" t="str">
         <f t="shared" si="1"/>
         <v>160 x 80 x 5</v>
@@ -6701,7 +6701,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="8" t="str">
         <f t="shared" si="1"/>
         <v>160 x 80 x 6</v>
@@ -6764,7 +6764,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78" s="8" t="str">
         <f t="shared" si="1"/>
         <v>160 x 80 x 8</v>
@@ -6827,7 +6827,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="8" t="str">
         <f t="shared" si="1"/>
         <v>160 x 80 x 10</v>
@@ -6890,7 +6890,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A80" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 80 x 3</v>
@@ -6953,7 +6953,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A81" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 80 x 4</v>
@@ -7016,7 +7016,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 80 x 5</v>
@@ -7079,7 +7079,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 80 x 6</v>
@@ -7142,7 +7142,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 80 x 8</v>
@@ -7205,7 +7205,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A85" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 80 x 10</v>
@@ -7268,7 +7268,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A86" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 100 x 4</v>
@@ -7331,7 +7331,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 100 x 5</v>
@@ -7394,7 +7394,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 100 x 6</v>
@@ -7457,7 +7457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 100 x 8</v>
@@ -7520,7 +7520,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="8" t="str">
         <f t="shared" si="1"/>
         <v>180 x 100 x 10</v>
@@ -7583,7 +7583,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A91" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 100 x 4</v>
@@ -7646,7 +7646,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A92" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 100 x 5</v>
@@ -7709,7 +7709,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 100 x 6</v>
@@ -7772,7 +7772,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 100 x 8</v>
@@ -7835,7 +7835,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 100 x 10</v>
@@ -7898,7 +7898,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A96" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 120 x 4</v>
@@ -7961,7 +7961,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A97" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 120 x 5</v>
@@ -8024,7 +8024,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A98" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 120 x 6</v>
@@ -8087,7 +8087,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 120 x 8</v>
@@ -8150,7 +8150,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A100" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 120 x 10</v>
@@ -8213,7 +8213,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A101" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 150 x 4</v>
@@ -8276,7 +8276,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 150 x 5</v>
@@ -8339,7 +8339,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A103" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 150 x 6</v>
@@ -8402,7 +8402,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A104" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 150 x 8</v>
@@ -8465,7 +8465,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A105" s="8" t="str">
         <f t="shared" si="1"/>
         <v>200 x 150 x 10</v>
@@ -8528,7 +8528,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A106" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 5</v>
@@ -8591,7 +8591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A107" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 6</v>
@@ -8654,7 +8654,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A108" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 6.3</v>
@@ -8717,7 +8717,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A109" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 8</v>
@@ -8780,7 +8780,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A110" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 10</v>
@@ -8843,7 +8843,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A111" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 12</v>
@@ -8906,7 +8906,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>250 x 150 x 12.5</v>
@@ -8969,7 +8969,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A113" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 100 x 6</v>
@@ -9032,7 +9032,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 100 x 8</v>
@@ -9095,7 +9095,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 100 x 10</v>
@@ -9158,7 +9158,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 200 x 6</v>
@@ -9221,7 +9221,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 200 x 6.3</v>
@@ -9284,7 +9284,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 200 x 8</v>
@@ -9347,7 +9347,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 200 x 10</v>
@@ -9410,7 +9410,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 200 x 12</v>
@@ -9473,7 +9473,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>300 x 200 x 12.5</v>
@@ -9536,7 +9536,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A122" s="8" t="str">
         <f t="shared" si="1"/>
         <v>400 x 200 x 6</v>
@@ -9599,7 +9599,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>400 x 200 x 6.3</v>
@@ -9662,7 +9662,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A124" s="8" t="str">
         <f t="shared" si="1"/>
         <v>400 x 200 x 8</v>
@@ -9725,7 +9725,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A125" s="8" t="str">
         <f t="shared" si="1"/>
         <v>400 x 200 x 10</v>
@@ -9788,7 +9788,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A126" s="8" t="str">
         <f t="shared" si="1"/>
         <v>400 x 200 x 12</v>
@@ -9851,7 +9851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A127" s="8" t="str">
         <f t="shared" si="1"/>
         <v>400 x 200 x 12.5</v>
@@ -9914,7 +9914,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A128" s="8" t="str">
         <f t="shared" si="1"/>
         <v>450 x 250 x 6</v>
@@ -9977,7 +9977,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>450 x 250 x 6.3</v>
@@ -10040,7 +10040,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>450 x 250 x 8</v>
@@ -10103,7 +10103,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A131" s="8" t="str">
         <f t="shared" si="1"/>
         <v>450 x 250 x 10</v>
@@ -10166,7 +10166,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A132" s="8" t="str">
         <f t="shared" ref="A132:A139" si="2">B132&amp;" x "&amp;C132&amp;" x "&amp;D132</f>
         <v>450 x 250 x 12</v>
@@ -10229,7 +10229,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A133" s="8" t="str">
         <f t="shared" si="2"/>
         <v>450 x 250 x 12.5</v>
@@ -10292,7 +10292,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A134" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500 x 300 x 6</v>
@@ -10355,7 +10355,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A135" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500 x 300 x 6.3</v>
@@ -10418,7 +10418,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A136" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500 x 300 x 8</v>
@@ -10481,7 +10481,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A137" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500 x 300 x 10</v>
@@ -10544,7 +10544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A138" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500 x 300 x 12</v>
@@ -10607,7 +10607,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A139" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500 x 300 x 12.5</v>
@@ -10670,7 +10670,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -10704,38 +10704,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.71875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.71875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.27734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.71875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" t="s">
         <v>56</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>74</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>82</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>83</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>75</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>90</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>82</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>83</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>95</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>98</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>99</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>100</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>101</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>94</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>102</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>94</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>102</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>104</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>105</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>102</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>107</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>109</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
         <v>110</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>105</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>109</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
         <v>109</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>110</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>118</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>119</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>121</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>122</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>119</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
         <v>125</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>122</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>127</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>122</v>
       </c>
@@ -16256,7 +16256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16266,20 +16266,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FD9B6-32E2-45C0-A3B8-D17061D9FEF4}">
   <dimension ref="A1:Q226"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
@@ -16308,7 +16311,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -16327,7 +16330,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -16350,7 +16353,7 @@
         <v>13860</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -16373,7 +16376,7 @@
         <v>20950</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -16396,7 +16399,7 @@
         <v>29120</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -16419,7 +16422,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -16443,7 +16446,7 @@
       </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -16467,7 +16470,7 @@
       </c>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
         <v>183</v>
       </c>
@@ -16491,7 +16494,7 @@
       </c>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
         <v>183</v>
       </c>
@@ -16515,7 +16518,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
         <v>183</v>
       </c>
@@ -16539,7 +16542,7 @@
       </c>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
         <v>183</v>
       </c>
@@ -16563,7 +16566,7 @@
       </c>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15" t="s">
         <v>183</v>
       </c>
@@ -16586,7 +16589,7 @@
         <v>36610</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
         <v>183</v>
       </c>
@@ -16609,7 +16612,7 @@
         <v>46680</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
         <v>183</v>
       </c>
@@ -16632,7 +16635,7 @@
         <v>56800</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
         <v>183</v>
       </c>
@@ -16655,7 +16658,7 @@
         <v>67600</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
         <v>183</v>
       </c>
@@ -16678,7 +16681,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
         <v>183</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>123200</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
         <v>183</v>
       </c>
@@ -16724,7 +16727,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
         <v>183</v>
       </c>
@@ -16747,7 +16750,7 @@
         <v>28090</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15" t="s">
         <v>183</v>
       </c>
@@ -16770,7 +16773,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15" t="s">
         <v>183</v>
       </c>
@@ -16793,7 +16796,7 @@
         <v>48390</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15" t="s">
         <v>183</v>
       </c>
@@ -16816,7 +16819,7 @@
         <v>119660</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -16839,7 +16842,7 @@
         <v>58860</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -16862,7 +16865,7 @@
         <v>70010</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -16885,7 +16888,7 @@
         <v>21930</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -16908,7 +16911,7 @@
         <v>28840</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -16931,7 +16934,7 @@
         <v>41130</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -16954,7 +16957,7 @@
         <v>50080</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -16977,7 +16980,7 @@
         <v>22650</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -17000,7 +17003,7 @@
         <v>41370</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>183</v>
       </c>
@@ -17023,7 +17026,7 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -17046,7 +17049,7 @@
         <v>21010</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -17069,7 +17072,7 @@
         <v>34560</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -17092,7 +17095,7 @@
         <v>50010</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -17115,7 +17118,7 @@
         <v>67910</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -17138,7 +17141,7 @@
         <v>86380</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -17161,7 +17164,7 @@
         <v>106800</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -17184,7 +17187,7 @@
         <v>128700</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -17207,7 +17210,7 @@
         <v>22660</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -17230,7 +17233,7 @@
         <v>37150</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -17253,7 +17256,7 @@
         <v>53920</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>72750</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -17299,7 +17302,7 @@
         <v>92360</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -17322,7 +17325,7 @@
         <v>113800</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -17345,7 +17348,7 @@
         <v>7720</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -17368,7 +17371,7 @@
         <v>12630</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -17391,7 +17394,7 @@
         <v>19980</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -17414,7 +17417,7 @@
         <v>27090</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -17437,7 +17440,7 @@
         <v>26090</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -17460,7 +17463,7 @@
         <v>37230</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -17483,7 +17486,7 @@
         <v>48940</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -17506,7 +17509,7 @@
         <v>66060</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -17529,7 +17532,7 @@
         <v>72620</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -17552,7 +17555,7 @@
         <v>89490</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -17575,7 +17578,7 @@
         <v>109170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -17598,7 +17601,7 @@
         <v>128449.99999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -17621,7 +17624,7 @@
         <v>31910</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -17644,7 +17647,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -17667,7 +17670,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -17690,7 +17693,7 @@
         <v>58720</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -17713,7 +17716,7 @@
         <v>83040</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -17736,7 +17739,7 @@
         <v>108400</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -17759,7 +17762,7 @@
         <v>106490</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -17782,7 +17785,7 @@
         <v>130590</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -17805,7 +17808,7 @@
         <v>158770</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>181</v>
       </c>
@@ -17822,13 +17825,13 @@
         <v>225</v>
       </c>
       <c r="F67" s="14">
-        <v>24739899.999999996</v>
+        <v>11385000</v>
       </c>
       <c r="G67" s="14">
         <v>85140</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -17844,12 +17847,14 @@
       <c r="E68">
         <v>225</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="14">
+        <v>15436200</v>
+      </c>
       <c r="G68" s="14">
         <v>126240.00000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -17865,12 +17870,15 @@
       <c r="E69">
         <v>250</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="14">
+        <v>31193600</v>
+      </c>
       <c r="G69" s="14">
         <v>250880</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>181</v>
       </c>
@@ -17894,7 +17902,7 @@
         <v>267320</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -17918,7 +17926,7 @@
         <v>288230</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -17942,7 +17950,7 @@
         <v>329990</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -17966,119 +17974,119 @@
         <v>371810</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="214" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
     </row>
-    <row r="215" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H215" s="15"/>
       <c r="I215" s="15"/>
     </row>
-    <row r="216" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
     </row>
-    <row r="217" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H217" s="15"/>
       <c r="I217" s="15"/>
     </row>
-    <row r="218" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H218" s="15"/>
       <c r="I218" s="15"/>
     </row>
-    <row r="219" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
     </row>
-    <row r="220" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H220" s="15"/>
       <c r="I220" s="15"/>
     </row>
-    <row r="221" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H221" s="15"/>
       <c r="I221" s="15"/>
     </row>
-    <row r="222" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H222" s="15"/>
       <c r="I222" s="15"/>
     </row>
-    <row r="223" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H223" s="15"/>
       <c r="I223" s="15"/>
     </row>
-    <row r="224" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H224" s="15"/>
       <c r="I224" s="15"/>
     </row>
-    <row r="225" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H225" s="15"/>
       <c r="I225" s="15"/>
     </row>
-    <row r="226" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H226" s="15"/>
       <c r="I226" s="15"/>
     </row>
@@ -18099,18 +18107,18 @@
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.27734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
@@ -18139,7 +18147,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -18158,7 +18166,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>353</v>
       </c>
@@ -18181,7 +18189,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>353</v>
       </c>
@@ -18204,7 +18212,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>353</v>
       </c>
@@ -18227,7 +18235,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>353</v>
       </c>
@@ -18250,7 +18258,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -18274,7 +18282,7 @@
       </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -18298,7 +18306,7 @@
       </c>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -18322,7 +18330,7 @@
       </c>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -18346,7 +18354,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -18370,7 +18378,7 @@
       </c>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -18394,7 +18402,7 @@
       </c>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>353</v>
       </c>
@@ -18417,7 +18425,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>353</v>
       </c>
@@ -18440,7 +18448,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>353</v>
       </c>
@@ -18463,7 +18471,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>353</v>
       </c>
@@ -18486,7 +18494,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -18509,7 +18517,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>353</v>
       </c>
@@ -18532,7 +18540,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>353</v>
       </c>
@@ -18555,7 +18563,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -18578,7 +18586,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>353</v>
       </c>
@@ -18601,7 +18609,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>353</v>
       </c>
@@ -18624,7 +18632,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -18647,7 +18655,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>353</v>
       </c>
@@ -18670,7 +18678,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>353</v>
       </c>
@@ -18693,7 +18701,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>353</v>
       </c>
@@ -18716,7 +18724,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>353</v>
       </c>
@@ -18739,7 +18747,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>353</v>
       </c>
@@ -18762,7 +18770,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>353</v>
       </c>
@@ -18785,7 +18793,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -18808,7 +18816,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>353</v>
       </c>
@@ -18831,7 +18839,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>353</v>
       </c>
@@ -18854,7 +18862,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>353</v>
       </c>
@@ -18877,7 +18885,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>353</v>
       </c>
@@ -18900,7 +18908,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>353</v>
       </c>
@@ -18923,7 +18931,7 @@
         <v>27100</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>353</v>
       </c>
@@ -18946,7 +18954,7 @@
         <v>21300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>353</v>
       </c>
@@ -18969,7 +18977,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>353</v>
       </c>
@@ -18992,7 +19000,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>353</v>
       </c>
@@ -19015,7 +19023,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>353</v>
       </c>
@@ -19038,7 +19046,7 @@
         <v>24100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>353</v>
       </c>
@@ -19061,7 +19069,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>353</v>
       </c>
@@ -19084,7 +19092,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>353</v>
       </c>
@@ -19107,7 +19115,7 @@
         <v>36200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>353</v>
       </c>
@@ -19130,7 +19138,7 @@
         <v>41100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>353</v>
       </c>
@@ -19153,7 +19161,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>353</v>
       </c>
@@ -19176,7 +19184,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>353</v>
       </c>
@@ -19199,7 +19207,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>353</v>
       </c>
@@ -19222,7 +19230,7 @@
         <v>51700</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>353</v>
       </c>
@@ -19245,7 +19253,7 @@
         <v>24700</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>353</v>
       </c>
@@ -19268,7 +19276,7 @@
         <v>31100</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>353</v>
       </c>
@@ -19291,7 +19299,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -19314,7 +19322,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -19337,7 +19345,7 @@
         <v>35900</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -19360,7 +19368,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>353</v>
       </c>
@@ -19383,7 +19391,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>353</v>
       </c>
@@ -19406,7 +19414,7 @@
         <v>54700</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>353</v>
       </c>
@@ -19429,7 +19437,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>353</v>
       </c>
@@ -19452,7 +19460,7 @@
         <v>49100</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>353</v>
       </c>
@@ -19475,7 +19483,7 @@
         <v>58900</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>353</v>
       </c>
@@ -19498,7 +19506,7 @@
         <v>67700</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>353</v>
       </c>
@@ -19521,7 +19529,7 @@
         <v>79300</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>353</v>
       </c>
@@ -19544,7 +19552,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>353</v>
       </c>
@@ -19567,7 +19575,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>353</v>
       </c>
@@ -19590,7 +19598,7 @@
         <v>73900</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>353</v>
       </c>
@@ -19613,7 +19621,7 @@
         <v>85300</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>353</v>
       </c>
@@ -19636,7 +19644,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>353</v>
       </c>
@@ -19659,7 +19667,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>353</v>
       </c>
@@ -19682,7 +19690,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>353</v>
       </c>
@@ -19705,7 +19713,7 @@
         <v>79300</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>353</v>
       </c>
@@ -19728,7 +19736,7 @@
         <v>95900</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>353</v>
       </c>
@@ -19751,7 +19759,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>353</v>
       </c>
@@ -19774,7 +19782,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>353</v>
       </c>
@@ -19797,7 +19805,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -19820,7 +19828,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -19843,7 +19851,7 @@
         <v>74700</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>353</v>
       </c>
@@ -19866,7 +19874,7 @@
         <v>90200</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>353</v>
       </c>
@@ -19889,7 +19897,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>353</v>
       </c>
@@ -19912,7 +19920,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -19935,7 +19943,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>353</v>
       </c>
@@ -19958,7 +19966,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>353</v>
       </c>
@@ -19981,7 +19989,7 @@
         <v>89100</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>353</v>
       </c>
@@ -20004,7 +20012,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>353</v>
       </c>
@@ -20027,7 +20035,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>353</v>
       </c>
@@ -20050,7 +20058,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>353</v>
       </c>
@@ -20073,7 +20081,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>353</v>
       </c>
@@ -20096,7 +20104,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>353</v>
       </c>
@@ -20119,7 +20127,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>353</v>
       </c>
@@ -20142,7 +20150,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -20165,7 +20173,7 @@
         <v>178000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -20188,7 +20196,7 @@
         <v>207000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>353</v>
       </c>
@@ -20211,7 +20219,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>353</v>
       </c>
@@ -20234,7 +20242,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>353</v>
       </c>
@@ -20257,7 +20265,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>353</v>
       </c>
@@ -20280,7 +20288,7 @@
         <v>209000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>353</v>
       </c>
@@ -20303,7 +20311,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>353</v>
       </c>
@@ -20326,7 +20334,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>353</v>
       </c>
@@ -20349,7 +20357,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>353</v>
       </c>
@@ -20372,7 +20380,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>353</v>
       </c>
@@ -20395,7 +20403,7 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>353</v>
       </c>
@@ -20418,7 +20426,7 @@
         <v>281000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>353</v>
       </c>
@@ -20441,7 +20449,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>353</v>
       </c>
@@ -20464,7 +20472,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>353</v>
       </c>
@@ -20487,7 +20495,7 @@
         <v>227000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>353</v>
       </c>
@@ -20510,7 +20518,7 @@
         <v>283000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>353</v>
       </c>
@@ -20533,7 +20541,7 @@
         <v>335000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>353</v>
       </c>
@@ -20556,7 +20564,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>353</v>
       </c>
@@ -20579,7 +20587,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -20602,7 +20610,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>353</v>
       </c>
@@ -20625,7 +20633,7 @@
         <v>391000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>353</v>
       </c>
@@ -20648,7 +20656,7 @@
         <v>466000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>353</v>
       </c>
@@ -20671,7 +20679,7 @@
         <v>517000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>353</v>
       </c>
@@ -20694,7 +20702,7 @@
         <v>531000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>353</v>
       </c>
@@ -20717,7 +20725,7 @@
         <v>318000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>353</v>
       </c>
@@ -20740,7 +20748,7 @@
         <v>399000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>353</v>
       </c>
@@ -20763,7 +20771,7 @@
         <v>474000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>353</v>
       </c>
@@ -20786,7 +20794,7 @@
         <v>491000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>353</v>
       </c>
@@ -20809,7 +20817,7 @@
         <v>508000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>353</v>
       </c>
@@ -20832,7 +20840,7 @@
         <v>626000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>353</v>
       </c>
@@ -20855,7 +20863,7 @@
         <v>754000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>353</v>
       </c>
@@ -20878,7 +20886,7 @@
         <v>853000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>353</v>
       </c>
@@ -20901,7 +20909,7 @@
         <v>879000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>353</v>
       </c>
@@ -20924,7 +20932,7 @@
         <v>739000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>353</v>
       </c>
@@ -20947,7 +20955,7 @@
         <v>766000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>353</v>
       </c>
@@ -20970,7 +20978,7 @@
         <v>949000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>353</v>
       </c>
@@ -20993,7 +21001,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>353</v>
       </c>
@@ -21016,7 +21024,7 @@
         <v>1310000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>353</v>
       </c>
@@ -21039,7 +21047,7 @@
         <v>1360000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>353</v>
       </c>
@@ -21062,7 +21070,7 @@
         <v>1010000</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>353</v>
       </c>
@@ -21085,7 +21093,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>353</v>
       </c>
@@ -21108,7 +21116,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>353</v>
       </c>
@@ -21131,7 +21139,7 @@
         <v>1590000</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>353</v>
       </c>
@@ -21154,7 +21162,7 @@
         <v>1830000</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>353</v>
       </c>
@@ -21177,7 +21185,7 @@
         <v>1890000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>353</v>
       </c>
@@ -21200,7 +21208,7 @@
         <v>1320000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>353</v>
       </c>
@@ -21223,7 +21231,7 @@
         <v>1370000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>353</v>
       </c>
@@ -21246,7 +21254,7 @@
         <v>1710000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>353</v>
       </c>
@@ -21269,7 +21277,7 @@
         <v>2090000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>353</v>
       </c>
@@ -21292,7 +21300,7 @@
         <v>2420000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>353</v>
       </c>
@@ -21315,7 +21323,7 @@
         <v>2510000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>182</v>
       </c>
@@ -21338,7 +21346,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>182</v>
       </c>
@@ -21361,7 +21369,7 @@
         <v>47900</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>182</v>
       </c>
@@ -21384,7 +21392,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>182</v>
       </c>
@@ -21407,7 +21415,7 @@
         <v>89100</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -21430,7 +21438,7 @@
         <v>132700</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>182</v>
       </c>
@@ -21453,7 +21461,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>182</v>
       </c>
@@ -21476,7 +21484,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -21499,7 +21507,7 @@
         <v>21300</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>182</v>
       </c>
@@ -21522,7 +21530,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -21545,7 +21553,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>182</v>
       </c>
@@ -21568,7 +21576,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>182</v>
       </c>
@@ -21591,7 +21599,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>182</v>
       </c>
@@ -21614,7 +21622,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -21637,7 +21645,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>182</v>
       </c>
@@ -21660,7 +21668,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>182</v>
       </c>
@@ -21683,119 +21691,119 @@
         <v>32299.999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
     </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
     </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
     </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
     </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -21804,7 +21812,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -21813,7 +21821,7 @@
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -21822,7 +21830,7 @@
       <c r="F192" s="15"/>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -21831,7 +21839,7 @@
       <c r="F193" s="15"/>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -21840,7 +21848,7 @@
       <c r="F194" s="15"/>
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -21849,7 +21857,7 @@
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -21858,7 +21866,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -21867,7 +21875,7 @@
       <c r="F197" s="15"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -21876,7 +21884,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -21885,7 +21893,7 @@
       <c r="F199" s="15"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -21894,7 +21902,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -21903,7 +21911,7 @@
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -21912,7 +21920,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -21921,7 +21929,7 @@
       <c r="F203" s="15"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -21930,13 +21938,13 @@
       <c r="F204" s="15"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
@@ -21944,7 +21952,7 @@
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
@@ -21952,7 +21960,7 @@
       <c r="H215" s="15"/>
       <c r="I215" s="15"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
@@ -21960,7 +21968,7 @@
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
@@ -21968,7 +21976,7 @@
       <c r="H217" s="15"/>
       <c r="I217" s="15"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
@@ -21976,7 +21984,7 @@
       <c r="H218" s="15"/>
       <c r="I218" s="15"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
@@ -21984,7 +21992,7 @@
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
@@ -21992,27 +22000,27 @@
       <c r="H220" s="15"/>
       <c r="I220" s="15"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H221" s="15"/>
       <c r="I221" s="15"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H222" s="15"/>
       <c r="I222" s="15"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H223" s="15"/>
       <c r="I223" s="15"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H224" s="15"/>
       <c r="I224" s="15"/>
     </row>
-    <row r="225" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H225" s="15"/>
       <c r="I225" s="15"/>
     </row>
-    <row r="226" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H226" s="15"/>
       <c r="I226" s="15"/>
     </row>
